--- a/rough.xlsx
+++ b/rough.xlsx
@@ -30,34 +30,34 @@
     <t>roughText</t>
   </si>
   <si>
-    <t>Randomized (n=xxx)</t>
-  </si>
-  <si>
     <t>row</t>
-  </si>
-  <si>
-    <t>Allocated to xxxxxxx (n=xx)~* Received allocated drug (n=xx)~* Did not receive allocated drug (n=x)</t>
-  </si>
-  <si>
-    <t>Discontinued drug (n=xx) due to:~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)</t>
-  </si>
-  <si>
-    <t>FAS (n=xx)~* Excluded from FAS~  (n=x)~* Safety set (n=xx)~* Excluded from SS~  (n=x)</t>
   </si>
   <si>
     <t>col</t>
   </si>
   <si>
-    <t>Something~good (n=xx)</t>
+    <t>Assessed for Eligibility (n=XXX)</t>
   </si>
   <si>
-    <t>Something~bad (n=xx)</t>
+    <t>Randomized (n=XXX)</t>
   </si>
   <si>
-    <t>Assessed for Eligibility (n=xxx)</t>
+    <t>Excluded (n=XX)~* Reason text about yeah long (n=XX)~* Reason 2 (n=XX)~* Reason 3 (n=XX)</t>
   </si>
   <si>
-    <t>Excluded (n=xx)~* Reason text about yeah long (n=xx)~* Reason 2 (n=xx)~* Reason 3 (n=xx)</t>
+    <t>Allocated to XXXXXXx (n=XX)~* Received allocated drug (n=XX)~* Did not receive allocated drug (n=x)</t>
+  </si>
+  <si>
+    <t>Discontinued drug (n=XX) due to:~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)</t>
+  </si>
+  <si>
+    <t>FAS (n=XX)~* Excluded from FAS (n=x)~* Safety set (n=XX)~* Excluded from SS (n=x)</t>
+  </si>
+  <si>
+    <t>Something~good (n=XX)</t>
+  </si>
+  <si>
+    <t>Something~bad (n=XX)</t>
   </si>
 </sst>
 </file>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{853A043C-05FC-443E-A84D-D9484052EC9D}" diskRevisions="1" revisionId="120" version="20">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E71762C3-C305-4CB4-9977-85275CA18763}" diskRevisions="1" revisionId="144" version="23">
   <header guid="{7185A8B3-D95F-442E-9A6F-C5AC9ECC7367}" dateTime="2018-08-02T09:28:57" maxSheetId="4" userName="Shane Rosanbalm" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
@@ -254,6 +254,27 @@
     </sheetIdMap>
   </header>
   <header guid="{853A043C-05FC-443E-A84D-D9484052EC9D}" dateTime="2018-08-03T10:32:14" maxSheetId="4" userName="Shane Rosanbalm" r:id="rId20" minRId="117" maxRId="120">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{88893D6D-27DE-4107-92FC-206BBC374DCC}" dateTime="2018-08-15T07:23:05" maxSheetId="4" userName="Shane Rosanbalm" r:id="rId21" minRId="121" maxRId="123">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{446DAAC7-7BFA-490A-B33F-FAB403D87D61}" dateTime="2018-08-15T07:35:28" maxSheetId="4" userName="Shane Rosanbalm" r:id="rId22" minRId="124" maxRId="126">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{E71762C3-C305-4CB4-9977-85275CA18763}" dateTime="2018-08-15T07:45:34" maxSheetId="4" userName="Shane Rosanbalm" r:id="rId23" minRId="127" maxRId="144">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -535,6 +556,309 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="121" sId="1">
+    <oc r="D13" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS~  (n=x)~* Safety set (n=xx)~* Excluded from SS~  (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS~  (n=x)~* Safety set (n=xx)~* Excluded from SS  (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="122" sId="1">
+    <oc r="D12" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS~  (n=x)~* Safety set (n=xx)~* Excluded from SS~  (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS~  (n=x)~* Safety set (n=xx)~* Excluded from SS  (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="123" sId="1">
+    <oc r="D11" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS~  (n=x)~* Safety set (n=xx)~* Excluded from SS~  (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS~  (n=x)~* Safety set (n=xx)~* Excluded from SS  (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="124" sId="1">
+    <oc r="D13" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS~  (n=x)~* Safety set (n=xx)~* Excluded from SS  (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS (n=x)~* Safety set (n=xx)~* Excluded from SS (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="125" sId="1">
+    <oc r="D12" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS~  (n=x)~* Safety set (n=xx)~* Excluded from SS  (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS (n=x)~* Safety set (n=xx)~* Excluded from SS (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="126" sId="1">
+    <oc r="D11" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS~  (n=x)~* Safety set (n=xx)~* Excluded from SS  (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS (n=x)~* Safety set (n=xx)~* Excluded from SS (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="127" sId="1">
+    <oc r="D2" t="inlineStr">
+      <is>
+        <t>Assessed for Eligibility (n=xxx)</t>
+      </is>
+    </oc>
+    <nc r="D2" t="inlineStr">
+      <is>
+        <t>Assessed for Eligibility (n=XXX)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="128" sId="1">
+    <oc r="D3" t="inlineStr">
+      <is>
+        <t>Randomized (n=xxx)</t>
+      </is>
+    </oc>
+    <nc r="D3" t="inlineStr">
+      <is>
+        <t>Randomized (n=XXX)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="129" sId="1">
+    <oc r="D4" t="inlineStr">
+      <is>
+        <t>Excluded (n=xx)~* Reason text about yeah long (n=xx)~* Reason 2 (n=xx)~* Reason 3 (n=xx)</t>
+      </is>
+    </oc>
+    <nc r="D4" t="inlineStr">
+      <is>
+        <t>Excluded (n=XX)~* Reason text about yeah long (n=XX)~* Reason 2 (n=XX)~* Reason 3 (n=XX)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="130" sId="1">
+    <oc r="D5" t="inlineStr">
+      <is>
+        <t>Allocated to xxxxxxx (n=xx)~* Received allocated drug (n=xx)~* Did not receive allocated drug (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D5" t="inlineStr">
+      <is>
+        <t>Allocated to XXXXXXx (n=XX)~* Received allocated drug (n=XX)~* Did not receive allocated drug (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="131" sId="1">
+    <oc r="D6" t="inlineStr">
+      <is>
+        <t>Allocated to xxxxxxx (n=xx)~* Received allocated drug (n=xx)~* Did not receive allocated drug (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D6" t="inlineStr">
+      <is>
+        <t>Allocated to XXXXXXx (n=XX)~* Received allocated drug (n=XX)~* Did not receive allocated drug (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="132" sId="1">
+    <oc r="D7" t="inlineStr">
+      <is>
+        <t>Allocated to xxxxxxx (n=xx)~* Received allocated drug (n=xx)~* Did not receive allocated drug (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D7" t="inlineStr">
+      <is>
+        <t>Allocated to XXXXXXx (n=XX)~* Received allocated drug (n=XX)~* Did not receive allocated drug (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="133" sId="1">
+    <oc r="D8" t="inlineStr">
+      <is>
+        <t>Discontinued drug (n=xx) due to:~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D8" t="inlineStr">
+      <is>
+        <t>Discontinued drug (n=XX) due to:~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="134" sId="1">
+    <oc r="D9" t="inlineStr">
+      <is>
+        <t>Discontinued drug (n=xx) due to:~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D9" t="inlineStr">
+      <is>
+        <t>Discontinued drug (n=XX) due to:~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="135" sId="1">
+    <oc r="D10" t="inlineStr">
+      <is>
+        <t>Discontinued drug (n=xx) due to:~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D10" t="inlineStr">
+      <is>
+        <t>Discontinued drug (n=XX) due to:~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)~* Reason text (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="136" sId="1">
+    <oc r="D11" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS (n=x)~* Safety set (n=xx)~* Excluded from SS (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D11" t="inlineStr">
+      <is>
+        <t>FAS (n=XX)~* Excluded from FAS (n=x)~* Safety set (n=XX)~* Excluded from SS (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="137" sId="1">
+    <oc r="D12" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS (n=x)~* Safety set (n=xx)~* Excluded from SS (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D12" t="inlineStr">
+      <is>
+        <t>FAS (n=XX)~* Excluded from FAS (n=x)~* Safety set (n=XX)~* Excluded from SS (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="138" sId="1">
+    <oc r="D13" t="inlineStr">
+      <is>
+        <t>FAS (n=xx)~* Excluded from FAS (n=x)~* Safety set (n=xx)~* Excluded from SS (n=x)</t>
+      </is>
+    </oc>
+    <nc r="D13" t="inlineStr">
+      <is>
+        <t>FAS (n=XX)~* Excluded from FAS (n=x)~* Safety set (n=XX)~* Excluded from SS (n=x)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="139" sId="1">
+    <oc r="D14" t="inlineStr">
+      <is>
+        <t>Something~good (n=xx)</t>
+      </is>
+    </oc>
+    <nc r="D14" t="inlineStr">
+      <is>
+        <t>Something~good (n=XX)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="140" sId="1">
+    <oc r="D15" t="inlineStr">
+      <is>
+        <t>Something~bad (n=xx)</t>
+      </is>
+    </oc>
+    <nc r="D15" t="inlineStr">
+      <is>
+        <t>Something~bad (n=XX)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="141" sId="1">
+    <oc r="D16" t="inlineStr">
+      <is>
+        <t>Something~good (n=xx)</t>
+      </is>
+    </oc>
+    <nc r="D16" t="inlineStr">
+      <is>
+        <t>Something~good (n=XX)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="142" sId="1">
+    <oc r="D17" t="inlineStr">
+      <is>
+        <t>Something~bad (n=xx)</t>
+      </is>
+    </oc>
+    <nc r="D17" t="inlineStr">
+      <is>
+        <t>Something~bad (n=XX)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="143" sId="1">
+    <oc r="D18" t="inlineStr">
+      <is>
+        <t>Something~good (n=xx)</t>
+      </is>
+    </oc>
+    <nc r="D18" t="inlineStr">
+      <is>
+        <t>Something~good (n=XX)</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="144" sId="1">
+    <oc r="D19" t="inlineStr">
+      <is>
+        <t>Something~bad (n=xx)</t>
+      </is>
+    </oc>
+    <nc r="D19" t="inlineStr">
+      <is>
+        <t>Something~bad (n=XX)</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rrc rId="2" sId="1" eol="1" ref="A14:XFD14" action="insertRow"/>
@@ -1076,8 +1400,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
   <userInfo guid="{853A043C-05FC-443E-A84D-D9484052EC9D}" name="Shane Rosanbalm" id="-1707014837" dateTime="2018-08-03T10:31:08"/>
+  <userInfo guid="{E71762C3-C305-4CB4-9977-85275CA18763}" name="Shane Rosanbalm" id="-1706987016" dateTime="2018-08-15T06:55:15"/>
 </users>
 </file>
 
@@ -1371,7 +1696,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1385,10 +1710,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1405,7 +1730,7 @@
         <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1419,7 +1744,7 @@
         <v>1.5</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1433,7 +1758,7 @@
         <v>2.5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1447,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1461,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1475,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1489,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1503,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1517,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1531,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1545,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1573,7 +1898,7 @@
         <v>0.75</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1587,7 +1912,7 @@
         <v>1.25</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1601,7 +1926,7 @@
         <v>1.75</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1615,7 +1940,7 @@
         <v>2.25</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1629,7 +1954,7 @@
         <v>2.75</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1643,7 +1968,7 @@
         <v>3.25</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
